--- a/docs/assets/templates/individual_catalog_import.xlsx
+++ b/docs/assets/templates/individual_catalog_import.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stere\Desktop\bulkimportformats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anastasia/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7864EB59-4A84-468B-AA4F-D3F81242BC7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8695F8BE-009C-CE43-B7F1-5E766F40C454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{A263B153-333A-4242-B05A-7E4C4091D521}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23240" windowHeight="12560" xr2:uid="{A263B153-333A-4242-B05A-7E4C4091D521}"/>
   </bookViews>
   <sheets>
     <sheet name="Minimum" sheetId="1" r:id="rId1"/>
-    <sheet name="Explanations" sheetId="2" r:id="rId2"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Encounter.mediaAsset0</t>
   </si>
@@ -45,30 +45,9 @@
     <t>Encounter.specificEpithet</t>
   </si>
   <si>
-    <t>Photograph</t>
-  </si>
-  <si>
-    <t>Taxonomy</t>
-  </si>
-  <si>
-    <t>Required in most Wildbooks. Include both Encounter.genus and Encounter.specificEpithet</t>
-  </si>
-  <si>
-    <t>Encounter.mediaAsset0 is required for successful upload. Must be entered exactly: relative path to the photo from the position of the imported spreadsheet on the file system</t>
-  </si>
-  <si>
-    <t>Data owner</t>
-  </si>
-  <si>
     <t>Encounter.submitterID</t>
   </si>
   <si>
-    <t>Encounter.submitterID; is not necessary if you want to create public encounters</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
     <t>MarkedIndividual.individualID</t>
   </si>
   <si>
@@ -81,26 +60,35 @@
     <t>Encounter.mediaAsset1.keywords</t>
   </si>
   <si>
-    <t>Photograph description</t>
-  </si>
-  <si>
-    <t>Keywords can be used to describe a photograph, indicating image quality, environment details, etc. Encounter.mediaAsset0.keywords can accept a single value or a list (use commas with no spaces between values)</t>
-  </si>
-  <si>
-    <t>If you want to provide multiple photographs to improve matchability for an individual, add another column with Encounter.mediaAsset and increment the number (Encounter.mediaAsset1). The same can be done with keywords</t>
-  </si>
-  <si>
-    <t>The display name of the individual; can create or add an encounter to an existing individual</t>
-  </si>
-  <si>
-    <t>Adding more photographs</t>
+    <t>Encounter.year</t>
+  </si>
+  <si>
+    <t>Encounter.month</t>
+  </si>
+  <si>
+    <t>Encounter.day</t>
+  </si>
+  <si>
+    <t>Encounter.locationID</t>
+  </si>
+  <si>
+    <t>For a list of available fields and how to use them see:</t>
+  </si>
+  <si>
+    <t>https://wildbook.docs.wildme.org/data/bulk-import-beta.html#fields-available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find demos and tutorials on our YouTube channel: </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/@wildme3451/videos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,8 +96,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,23 +180,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -211,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -251,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -357,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -507,48 +510,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F952EF-0BDC-44CA-956A-D249AEA1D657}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.41796875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.41796875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.41796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.41796875" style="7" customWidth="1"/>
-    <col min="5" max="5" width="19.41796875" customWidth="1"/>
-    <col min="6" max="6" width="13.89453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>14</v>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -558,75 +575,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B51BBC-974A-4916-92C0-48C3833BBE3C}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.20703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>6</v>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" location="fields-available" xr:uid="{65FF0EC4-84B8-4F4A-9B75-ED9BA0B1025B}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{38FF2C7B-31B7-D349-9F6F-000D680D4310}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>